--- a/Data/城市数据/就业/分产业就业share.xlsx
+++ b/Data/城市数据/就业/分产业就业share.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qitianhu/Documents/Research/Explore/COVID-19_sosc/Data/城市数据/就业/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B122FAB9-5D2F-4945-9475-C5EE06D3E7AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBD3FA0-E2D9-DC40-A050-0BA0E35F2828}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27580" windowHeight="17040" xr2:uid="{C4D542A0-2677-9242-9A49-A1839884455D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{C4D542A0-2677-9242-9A49-A1839884455D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>北京市</t>
   </si>
@@ -112,9 +112,6 @@
     <t>运城市</t>
   </si>
   <si>
-    <t>沂州市</t>
-  </si>
-  <si>
     <t>临汾市</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>黄山市</t>
   </si>
   <si>
-    <t>酴州市</t>
-  </si>
-  <si>
     <t>阜阳市</t>
   </si>
   <si>
@@ -502,9 +496,6 @@
     <t>焦作市</t>
   </si>
   <si>
-    <t>贌阳市</t>
-  </si>
-  <si>
     <t>许昌市</t>
   </si>
   <si>
@@ -640,9 +631,6 @@
     <t>梅州市</t>
   </si>
   <si>
-    <t>油尾市</t>
-  </si>
-  <si>
     <t>河源市</t>
   </si>
   <si>
@@ -953,6 +941,27 @@
   </si>
   <si>
     <t>葫芦岛市</t>
+  </si>
+  <si>
+    <t>滁州市</t>
+  </si>
+  <si>
+    <t>忻州市</t>
+  </si>
+  <si>
+    <t>濮阳市</t>
+  </si>
+  <si>
+    <t>汕尾市</t>
+  </si>
+  <si>
+    <t>贵港市</t>
+  </si>
+  <si>
+    <t>宿州市</t>
+  </si>
+  <si>
+    <t>钦州市</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166F3F83-C8AB-B34D-881A-B20EAA3219A3}">
-  <dimension ref="A1:G296"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="G305" sqref="G305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1322,25 +1331,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" t="s">
         <v>294</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>295</v>
-      </c>
-      <c r="D1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1825,7 +1834,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="B23">
         <v>0.96</v>
@@ -1848,7 +1857,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0.92</v>
@@ -1871,7 +1880,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>0.21</v>
@@ -1894,7 +1903,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>0.78</v>
@@ -1917,7 +1926,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>0.73</v>
@@ -1940,7 +1949,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>0.18</v>
@@ -1963,7 +1972,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>4.74</v>
@@ -1986,7 +1995,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>20.3</v>
@@ -2009,7 +2018,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>0.81</v>
@@ -2032,7 +2041,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>26.14</v>
@@ -2055,7 +2064,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>12.4</v>
@@ -2078,7 +2087,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>1.5</v>
@@ -2101,7 +2110,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>0.21</v>
@@ -2124,7 +2133,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>0.59</v>
@@ -2147,7 +2156,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>0.37</v>
@@ -2170,7 +2179,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>1.71</v>
@@ -2193,7 +2202,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>0.36</v>
@@ -2216,7 +2225,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>0.78</v>
@@ -2239,7 +2248,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>3.63</v>
@@ -2262,7 +2271,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>0.36</v>
@@ -2285,7 +2294,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>1.93</v>
@@ -2308,7 +2317,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>3.96</v>
@@ -2331,7 +2340,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>38.479999999999997</v>
@@ -2354,7 +2363,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>7.02</v>
@@ -2377,7 +2386,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>0.5</v>
@@ -2400,7 +2409,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B48">
         <v>1.01</v>
@@ -2423,7 +2432,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>0.93</v>
@@ -2446,7 +2455,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>2.54</v>
@@ -2469,7 +2478,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>3.59</v>
@@ -2492,7 +2501,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>1.8</v>
@@ -2515,7 +2524,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53">
         <v>1.85</v>
@@ -2538,7 +2547,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>11.47</v>
@@ -2561,7 +2570,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>7.88</v>
@@ -2584,7 +2593,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56">
         <v>9.69</v>
@@ -2607,7 +2616,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>2.5499999999999998</v>
@@ -2630,7 +2639,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58">
         <v>12.36</v>
@@ -2653,7 +2662,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>25.8</v>
@@ -2676,7 +2685,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60">
         <v>29.75</v>
@@ -2699,7 +2708,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>4.58</v>
@@ -2722,7 +2731,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>0.56999999999999995</v>
@@ -2745,7 +2754,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>53.5</v>
@@ -2768,7 +2777,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>11.94</v>
@@ -2791,7 +2800,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>4.66</v>
@@ -2814,7 +2823,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>15.37</v>
@@ -2837,7 +2846,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>19.940000000000001</v>
@@ -2860,7 +2869,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>4.33</v>
@@ -2883,7 +2892,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>0.44</v>
@@ -2906,7 +2915,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>7.0000000000000007E-2</v>
@@ -2929,7 +2938,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>0.06</v>
@@ -2952,7 +2961,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>1.35</v>
@@ -2975,7 +2984,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>0.13</v>
@@ -2998,7 +3007,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74">
         <v>0.01</v>
@@ -3018,7 +3027,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>0.23</v>
@@ -3041,7 +3050,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>1.46</v>
@@ -3064,7 +3073,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>0.68</v>
@@ -3087,7 +3096,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>1.83</v>
@@ -3110,7 +3119,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>0.03</v>
@@ -3133,7 +3142,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>0.18</v>
@@ -3156,7 +3165,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81">
         <v>0.15</v>
@@ -3179,7 +3188,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82">
         <v>0.11</v>
@@ -3202,7 +3211,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>0.04</v>
@@ -3225,7 +3234,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84">
         <v>0.02</v>
@@ -3248,7 +3257,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85">
         <v>0.06</v>
@@ -3268,7 +3277,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86">
         <v>0.05</v>
@@ -3291,7 +3300,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87">
         <v>0.05</v>
@@ -3314,7 +3323,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88">
         <v>0.01</v>
@@ -3334,7 +3343,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89">
         <v>0.03</v>
@@ -3357,7 +3366,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90">
         <v>0.11</v>
@@ -3380,7 +3389,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>0.04</v>
@@ -3403,7 +3412,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92">
         <v>0.05</v>
@@ -3426,7 +3435,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93">
         <v>0.34</v>
@@ -3449,7 +3458,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94">
         <v>7.0000000000000007E-2</v>
@@ -3472,7 +3481,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95">
         <v>7.0000000000000007E-2</v>
@@ -3495,7 +3504,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96">
         <v>0.14000000000000001</v>
@@ -3518,7 +3527,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97">
         <v>1.87</v>
@@ -3541,7 +3550,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98">
         <v>0.33</v>
@@ -3564,7 +3573,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D99">
         <v>63.08</v>
@@ -3581,7 +3590,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100">
         <v>1.93</v>
@@ -3604,7 +3613,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101">
         <v>3.91</v>
@@ -3627,7 +3636,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102">
         <v>0.88</v>
@@ -3650,7 +3659,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="B103">
         <v>2.11</v>
@@ -3673,7 +3682,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B104">
         <v>0.51</v>
@@ -3696,7 +3705,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B105">
         <v>2.92</v>
@@ -3719,7 +3728,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B106">
         <v>0.08</v>
@@ -3739,7 +3748,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B107">
         <v>0.68</v>
@@ -3762,7 +3771,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B108">
         <v>1.1299999999999999</v>
@@ -3785,7 +3794,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B109">
         <v>0.19</v>
@@ -3808,7 +3817,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B110">
         <v>0.11</v>
@@ -3831,7 +3840,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B111">
         <v>0.14000000000000001</v>
@@ -3854,7 +3863,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B112">
         <v>1.54</v>
@@ -3877,7 +3886,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B113">
         <v>0.26</v>
@@ -3900,7 +3909,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B114">
         <v>3.14</v>
@@ -3923,7 +3932,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B115">
         <v>2.76</v>
@@ -3946,7 +3955,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B116">
         <v>1.23</v>
@@ -3969,7 +3978,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B117">
         <v>0.43</v>
@@ -3992,7 +4001,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B118">
         <v>0.3</v>
@@ -4015,7 +4024,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B119">
         <v>3.19</v>
@@ -4038,7 +4047,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B120">
         <v>0.3</v>
@@ -4061,7 +4070,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B121">
         <v>1.6</v>
@@ -4084,7 +4093,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B122">
         <v>0.26</v>
@@ -4107,7 +4116,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B123">
         <v>0.2</v>
@@ -4127,7 +4136,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B124">
         <v>0.89</v>
@@ -4150,7 +4159,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B125">
         <v>2.02</v>
@@ -4173,7 +4182,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B126">
         <v>0.79</v>
@@ -4196,7 +4205,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B127">
         <v>0.73</v>
@@ -4219,7 +4228,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B128">
         <v>1.27</v>
@@ -4242,7 +4251,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B129">
         <v>0.04</v>
@@ -4265,7 +4274,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B130">
         <v>7.0000000000000007E-2</v>
@@ -4288,7 +4297,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B131">
         <v>0.09</v>
@@ -4311,7 +4320,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B132">
         <v>0.1</v>
@@ -4334,7 +4343,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B133">
         <v>0.09</v>
@@ -4357,7 +4366,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B134">
         <v>0.05</v>
@@ -4377,7 +4386,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B135">
         <v>0.1</v>
@@ -4400,7 +4409,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B136">
         <v>0.1</v>
@@ -4423,7 +4432,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B137">
         <v>0.33</v>
@@ -4446,7 +4455,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B138">
         <v>0.12</v>
@@ -4469,7 +4478,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B139">
         <v>0.16</v>
@@ -4492,7 +4501,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D140">
         <v>66.09</v>
@@ -4509,7 +4518,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B141">
         <v>0.24</v>
@@ -4532,7 +4541,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B142">
         <v>0.14000000000000001</v>
@@ -4555,7 +4564,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B143">
         <v>0.08</v>
@@ -4578,7 +4587,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B144">
         <v>0.01</v>
@@ -4601,7 +4610,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B145">
         <v>0.11</v>
@@ -4624,7 +4633,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B146">
         <v>0.11</v>
@@ -4647,7 +4656,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B147">
         <v>0.13</v>
@@ -4670,7 +4679,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B148">
         <v>0.14000000000000001</v>
@@ -4693,7 +4702,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B149">
         <v>0.08</v>
@@ -4716,7 +4725,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B150">
         <v>0.11</v>
@@ -4739,7 +4748,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B151">
         <v>0.05</v>
@@ -4759,7 +4768,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B152">
         <v>7.0000000000000007E-2</v>
@@ -4782,7 +4791,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B153">
         <v>7.0000000000000007E-2</v>
@@ -4802,7 +4811,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="B154">
         <v>0.03</v>
@@ -4825,7 +4834,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C155">
         <v>0.01</v>
@@ -4845,7 +4854,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B156">
         <v>0.01</v>
@@ -4865,7 +4874,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B157">
         <v>0.28999999999999998</v>
@@ -4888,7 +4897,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B158">
         <v>0.54</v>
@@ -4911,7 +4920,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B159">
         <v>0.11</v>
@@ -4934,7 +4943,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B160">
         <v>0.16</v>
@@ -4957,7 +4966,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B161">
         <v>0.18</v>
@@ -4977,7 +4986,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B162">
         <v>0.87</v>
@@ -5000,7 +5009,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B163">
         <v>0.15</v>
@@ -5023,7 +5032,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B164">
         <v>0.35</v>
@@ -5046,7 +5055,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B165">
         <v>1.0900000000000001</v>
@@ -5069,7 +5078,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B166">
         <v>0.38</v>
@@ -5092,7 +5101,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B167">
         <v>2.76</v>
@@ -5115,7 +5124,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B168">
         <v>0.11</v>
@@ -5138,7 +5147,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B169">
         <v>1.88</v>
@@ -5161,7 +5170,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B170">
         <v>1.05</v>
@@ -5184,7 +5193,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B171">
         <v>3.47</v>
@@ -5207,7 +5216,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B172">
         <v>2.72</v>
@@ -5230,7 +5239,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B173">
         <v>0.18</v>
@@ -5253,7 +5262,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B174">
         <v>0.4</v>
@@ -5273,7 +5282,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B175">
         <v>0.11</v>
@@ -5296,7 +5305,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B176">
         <v>0.34</v>
@@ -5319,7 +5328,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B177">
         <v>0.02</v>
@@ -5342,7 +5351,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B178">
         <v>0.24</v>
@@ -5365,7 +5374,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B179">
         <v>0.92</v>
@@ -5388,7 +5397,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B180">
         <v>1.85</v>
@@ -5411,7 +5420,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B181">
         <v>0.14000000000000001</v>
@@ -5434,7 +5443,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B182">
         <v>0.42</v>
@@ -5457,7 +5466,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B183">
         <v>0.28999999999999998</v>
@@ -5480,7 +5489,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B184">
         <v>0.53</v>
@@ -5503,7 +5512,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B185">
         <v>0.89</v>
@@ -5526,7 +5535,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B186">
         <v>0.45</v>
@@ -5546,7 +5555,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B187">
         <v>0.5</v>
@@ -5569,7 +5578,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B188">
         <v>0.05</v>
@@ -5592,7 +5601,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B189">
         <v>0.46</v>
@@ -5615,7 +5624,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B190">
         <v>0.01</v>
@@ -5638,7 +5647,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B191">
         <v>0.85</v>
@@ -5661,7 +5670,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B192">
         <v>0.09</v>
@@ -5684,7 +5693,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B193">
         <v>0.01</v>
@@ -5707,7 +5716,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B194">
         <v>0.1</v>
@@ -5730,7 +5739,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B195">
         <v>2.83</v>
@@ -5753,7 +5762,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B196">
         <v>1.48</v>
@@ -5776,7 +5785,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B197">
         <v>0.22</v>
@@ -5799,7 +5808,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B198">
         <v>0.11</v>
@@ -5822,7 +5831,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B199">
         <v>0.12</v>
@@ -5845,7 +5854,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="B200">
         <v>0.6</v>
@@ -5868,7 +5877,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B201">
         <v>0.26</v>
@@ -5891,7 +5900,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B202">
         <v>1.76</v>
@@ -5914,7 +5923,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B203">
         <v>0.43</v>
@@ -5937,7 +5946,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B204">
         <v>0.01</v>
@@ -5951,7 +5960,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D205">
         <v>74.48</v>
@@ -5962,7 +5971,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B206">
         <v>0.08</v>
@@ -5985,7 +5994,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B207">
         <v>0.49</v>
@@ -6008,7 +6017,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B208">
         <v>0.22</v>
@@ -6031,7 +6040,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B209">
         <v>0.95</v>
@@ -6054,7 +6063,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B210">
         <v>0.7</v>
@@ -6077,7 +6086,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B211">
         <v>1.05</v>
@@ -6100,7 +6109,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B212">
         <v>0.35</v>
@@ -6123,7 +6132,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B213">
         <v>3.4</v>
@@ -6146,7 +6155,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B214">
         <v>11.72</v>
@@ -6169,7 +6178,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B215">
         <v>2.29</v>
@@ -6192,7 +6201,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B216">
         <v>1.0900000000000001</v>
@@ -6215,7 +6224,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B217">
         <v>1.47</v>
@@ -6238,7 +6247,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B218">
         <v>1.77</v>
@@ -6261,7 +6270,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B219">
         <v>7.22</v>
@@ -6284,7 +6293,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B220">
         <v>8.8800000000000008</v>
@@ -6307,7 +6316,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B221">
         <v>7.06</v>
@@ -6330,7 +6339,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B222">
         <v>2.79</v>
@@ -6353,17 +6362,26 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="B224">
+        <v>43.762574999999998</v>
+      </c>
+      <c r="D224">
+        <v>11.730382000000001</v>
+      </c>
+      <c r="F224">
+        <v>44.507041999999998</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B225">
         <v>0.28999999999999998</v>
@@ -6386,7 +6404,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B226">
         <v>0.63</v>
@@ -6400,7 +6418,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B227">
         <v>0.31</v>
@@ -6423,7 +6441,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B228">
         <v>1.1100000000000001</v>
@@ -6446,7 +6464,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B229">
         <v>0.16</v>
@@ -6469,7 +6487,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B230">
         <v>0.06</v>
@@ -6489,7 +6507,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B231">
         <v>0.15</v>
@@ -6512,7 +6530,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B232">
         <v>0.26</v>
@@ -6532,7 +6550,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D233">
         <v>50.14</v>
@@ -6549,7 +6567,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B234">
         <v>0.28000000000000003</v>
@@ -6572,7 +6590,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B235">
         <v>0.91</v>
@@ -6595,7 +6613,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B236">
         <v>0.19</v>
@@ -6618,7 +6636,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B237">
         <v>0.31</v>
@@ -6638,7 +6656,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B238">
         <v>0.56000000000000005</v>
@@ -6661,7 +6679,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B239">
         <v>1.03</v>
@@ -6684,7 +6702,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B240">
         <v>0.84</v>
@@ -6707,7 +6725,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B241">
         <v>0.65</v>
@@ -6730,7 +6748,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B242">
         <v>0.49</v>
@@ -6753,7 +6771,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B243">
         <v>0.15</v>
@@ -6776,7 +6794,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B244">
         <v>0.13</v>
@@ -6799,7 +6817,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B245">
         <v>0.27</v>
@@ -6822,7 +6840,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B246">
         <v>0.18</v>
@@ -6845,7 +6863,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B247">
         <v>0.55000000000000004</v>
@@ -6868,7 +6886,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B248">
         <v>0.36</v>
@@ -6891,7 +6909,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B249">
         <v>0.42</v>
@@ -6914,7 +6932,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B250">
         <v>0.24</v>
@@ -6937,7 +6955,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B251">
         <v>0.24</v>
@@ -6960,7 +6978,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B252">
         <v>0.74</v>
@@ -6983,7 +7001,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B253">
         <v>1.33</v>
@@ -7006,7 +7024,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B254">
         <v>0.68</v>
@@ -7029,7 +7047,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B255">
         <v>0.55000000000000004</v>
@@ -7052,7 +7070,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B256">
         <v>0.82</v>
@@ -7075,7 +7093,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B257">
         <v>6.7</v>
@@ -7098,7 +7116,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B258">
         <v>32.5</v>
@@ -7112,7 +7130,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B259">
         <v>0.77</v>
@@ -7126,7 +7144,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B260">
         <v>1.04</v>
@@ -7149,7 +7167,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B261">
         <v>3.39</v>
@@ -7163,7 +7181,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B262">
         <v>0.21</v>
@@ -7186,7 +7204,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B263">
         <v>4.59</v>
@@ -7200,7 +7218,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B264">
         <v>0.1</v>
@@ -7223,7 +7241,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B265">
         <v>0.16</v>
@@ -7246,7 +7264,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B266">
         <v>0.6</v>
@@ -7269,7 +7287,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B267">
         <v>0.4</v>
@@ -7292,7 +7310,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B268">
         <v>1.32</v>
@@ -7315,7 +7333,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B269">
         <v>0.72</v>
@@ -7338,7 +7356,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B270">
         <v>0.46</v>
@@ -7361,7 +7379,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B271">
         <v>0.95</v>
@@ -7384,7 +7402,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B272">
         <v>0.18</v>
@@ -7407,7 +7425,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B273">
         <v>0.94</v>
@@ -7430,7 +7448,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B274">
         <v>0.08</v>
@@ -7453,7 +7471,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B275">
         <v>10.11</v>
@@ -7467,7 +7485,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B276">
         <v>2.5499999999999998</v>
@@ -7487,7 +7505,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B277">
         <v>1.23</v>
@@ -7507,7 +7525,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B278">
         <v>2.37</v>
@@ -7530,7 +7548,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B279">
         <v>2.16</v>
@@ -7553,7 +7571,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B280">
         <v>2.36</v>
@@ -7576,7 +7594,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B281">
         <v>1.78</v>
@@ -7599,7 +7617,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B282">
         <v>5.25</v>
@@ -7622,7 +7640,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B283">
         <v>0.23</v>
@@ -7645,7 +7663,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B284">
         <v>0.82</v>
@@ -7665,7 +7683,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B285">
         <v>10.7</v>
@@ -7688,7 +7706,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B286">
         <v>0.32</v>
@@ -7711,7 +7729,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B287">
         <v>3.15</v>
@@ -7734,7 +7752,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B288">
         <v>1.42</v>
@@ -7757,7 +7775,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B289">
         <v>0.69</v>
@@ -7780,7 +7798,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B290">
         <v>2.5</v>
@@ -7803,7 +7821,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B291">
         <v>1.83</v>
@@ -7826,7 +7844,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B292">
         <v>4.16</v>
@@ -7849,7 +7867,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B293">
         <v>1.35</v>
@@ -7872,7 +7890,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B294">
         <v>0.05</v>
@@ -7895,7 +7913,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B295">
         <v>0.77</v>
@@ -7918,7 +7936,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B296">
         <v>10.4</v>
@@ -7937,6 +7955,48 @@
       </c>
       <c r="G296">
         <v>61.01</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>302</v>
+      </c>
+      <c r="B297">
+        <v>0.47505938242280199</v>
+      </c>
+      <c r="D297">
+        <v>22.5653206650831</v>
+      </c>
+      <c r="F297">
+        <v>76.959619952493995</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>303</v>
+      </c>
+      <c r="B298">
+        <v>35.637205000000002</v>
+      </c>
+      <c r="D298">
+        <v>29.188078000000001</v>
+      </c>
+      <c r="F298">
+        <v>35.174717000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>304</v>
+      </c>
+      <c r="B299">
+        <v>0.91819700000000004</v>
+      </c>
+      <c r="D299">
+        <v>42.904840999999998</v>
+      </c>
+      <c r="F299">
+        <v>56.176962000000003</v>
       </c>
     </row>
   </sheetData>
